--- a/files/Publications.xlsx
+++ b/files/Publications.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\kylermurphy.github.io\_publications\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\kylermurphy.github.io\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE52133E-2FE4-4F4D-9050-1DC5802BE9F8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{030C52FF-816B-4B5A-8369-BF5DFBA901E8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2190" yWindow="915" windowWidth="27465" windowHeight="14070" xr2:uid="{1453CF07-56E4-43BF-A661-31D912F52491}"/>
+    <workbookView xWindow="35400" yWindow="480" windowWidth="27465" windowHeight="14070" xr2:uid="{1453CF07-56E4-43BF-A661-31D912F52491}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -912,7 +912,7 @@
     <t>Ferdousi</t>
   </si>
   <si>
-    <t xml:space="preserve">Shumko </t>
+    <t>Shumko</t>
   </si>
 </sst>
 </file>
@@ -1272,7 +1272,7 @@
   <dimension ref="A1:G79"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A73" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G77" sqref="G77"/>
+      <selection activeCell="G83" sqref="G83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/files/Publications.xlsx
+++ b/files/Publications.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\kylermurphy.github.io\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{030C52FF-816B-4B5A-8369-BF5DFBA901E8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BD4167E-E292-4502-9A9F-8DFC3256DC5A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35400" yWindow="480" windowWidth="27465" windowHeight="14070" xr2:uid="{1453CF07-56E4-43BF-A661-31D912F52491}"/>
+    <workbookView xWindow="270" yWindow="315" windowWidth="27465" windowHeight="14070" xr2:uid="{1453CF07-56E4-43BF-A661-31D912F52491}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -919,10 +919,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -945,18 +953,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1271,8 +1282,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CB2684D-F64C-4FEE-BB0F-D334D32C1866}">
   <dimension ref="A1:G79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G83" sqref="G83"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2744,7 +2755,7 @@
       <c r="F73" t="s">
         <v>85</v>
       </c>
-      <c r="G73" t="s">
+      <c r="G73" s="4" t="s">
         <v>271</v>
       </c>
     </row>
@@ -2863,7 +2874,10 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G73" r:id="rId1" xr:uid="{CC1BA474-FB47-485B-804B-35AC93004621}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
--- a/files/Publications.xlsx
+++ b/files/Publications.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\kylermurphy.github.io\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\murph\GitHub\kylermurphy.github.io\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BD4167E-E292-4502-9A9F-8DFC3256DC5A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7040D9A6-BF9A-425C-8B1E-BF8DC8FC0210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="315" windowWidth="27465" windowHeight="14070" xr2:uid="{1453CF07-56E4-43BF-A661-31D912F52491}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13695" xr2:uid="{1453CF07-56E4-43BF-A661-31D912F52491}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="332">
   <si>
     <t>pub_date</t>
   </si>
@@ -913,13 +913,130 @@
   </si>
   <si>
     <t>Shumko</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1029/2021JA029329</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1029/2021GL094696</t>
+  </si>
+  <si>
+    <t>Turner</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1029/2021GL095495</t>
+  </si>
+  <si>
+    <t>Can Earth's Magnetotail Plasma Sheet Produce a Source of Relativistic Electrons for the Radiation Belts?</t>
+  </si>
+  <si>
+    <t>Turner, D. L., Cohen, I. J., Michael, A., Sorathia, K., Merkin, S., Mauk, B. H., et al. (2021). Can Earth's magnetotail plasma sheet produce a source of relativistic electrons for the radiation belts? Geophysical Research Letters, 48, e2021GL095495. https://doi.org/10.1029/2021GL095495</t>
+  </si>
+  <si>
+    <t>Resolving Magnetopause Shadowing Using Multimission Measurements of Phase Space Density</t>
+  </si>
+  <si>
+    <t>A Strong Correlation Between Relativistic Electron Microbursts and Patchy Aurora</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1029/2021JA029298</t>
+  </si>
+  <si>
+    <t>Staples, F. A., Kellerman, A., Murphy, K. R., Rae, I. J., Sandhu, J. K., &amp; Forsyth, C. (2022). Resolving magnetopause shadowing using multimission measurements of phase space density. Journal of Geophysical Research: Space Physics, 127, e2021JA029298. https://doi.org/10.1029/2021JA029298</t>
+  </si>
+  <si>
+    <t>Walton</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1029/2021JA030069</t>
+  </si>
+  <si>
+    <t>Statistical Comparison of Electron Loss and Enhancement in the Outer Radiation Belt During Storms</t>
+  </si>
+  <si>
+    <t>Walton, S. D., Forsyth, C., Rae, I. J., Meredith, N. P., Sandhu, J. K., Walach, M.-T., &amp; Murphy, K. R. (2022). Statistical comparison of electron loss and enhancement in the outer radiation belt during storms. Journal of Geophysical Research: Space Physics, 127, e2021JA030069. https://doi.org/10.1029/2021JA030069</t>
+  </si>
+  <si>
+    <t>What are the fundamental modes of energy transfer and partitioning in the coupled Magnetosphere-Ionosphere system?</t>
+  </si>
+  <si>
+    <t>Rae, J., Forsyth, C., Dunlop, M. et al. What are the fundamental modes of energy transfer and partitioning in the coupled Magnetosphere-Ionosphere system?. Exp Astron 54, 391–426 (2022). https://doi.org/10.1007/s10686-022-09861-w</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/s10686-022-09861-w</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3389/fspas.2022.975123</t>
+  </si>
+  <si>
+    <t>Proton aurora and relativistic electron microbursts scattered by electromagnetic ion cyclotron waves</t>
+  </si>
+  <si>
+    <t>Frontiers in Astronomy and Space Sciences</t>
+  </si>
+  <si>
+    <t>Experimental Astronomy</t>
+  </si>
+  <si>
+    <t>GMAG: An open-source Python package for ground-based magnetometer</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3389/fspas.2022.1005061</t>
+  </si>
+  <si>
+    <t>AuroraX, PyAuroraX, and aurora-asi-lib: A user-friendly auroral all-sky imager analysis framework</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3389/fspas.2022.1009450</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3389/fspas.2022.1004634</t>
+  </si>
+  <si>
+    <t>Temporal variability of quasi-linear pitch-angle diffusion</t>
+  </si>
+  <si>
+    <t>Superposed epoch analysis using time-normalization: A Python tool for statistical event analysis</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3389/fspas.2022.1000145</t>
+  </si>
+  <si>
+    <t>ttps://doi.org/10.1029/2022JA030491</t>
+  </si>
+  <si>
+    <t>Statistical Characterization of the Dynamic Near-Earth Plasma Sheet Relative to Ultra-Low Frequency (ULF) Wave Growth at Substorm Onset</t>
+  </si>
+  <si>
+    <t>Smith, A. W., Rae, I. J., Forsyth, C., Watt, C. E. J., &amp; Murphy, K. R. (2023). Statistical characterization of the dynamic near-Earth plasma sheet relative to Ultra-Low Frequency (ULF) wave growth at substorm onset. Journal of Geophysical Research: Space Physics, 128, e2022JA030491. https://doi.org/10.1029/2022JA030491</t>
+  </si>
+  <si>
+    <t>Quantifying the global solar wind-magnetosphere interaction with the Solar-Terrestrial Observer for the Response of the Magnetosphere (STORM) mission concept</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3389/fspas.2023.1138616</t>
+  </si>
+  <si>
+    <t>A New Four-Component L*-dependent Model for Radial Diffusion based on Solar Wind and Magnetospheric Drivers of ULF Waves</t>
+  </si>
+  <si>
+    <t>Imaging the magnetosphere-ionosphere system with ground-based and in-situ magnetometers</t>
+  </si>
+  <si>
+    <t>Magnetospheric Imaging</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/B978-0-12-820630-0.00002-7</t>
+  </si>
+  <si>
+    <t>Murphy, K. R., Bentley, S. N., Miles, D., Sandhu, J. K., &amp; Smith, A. (2022). Imaging the magnetosphere-ionosphere system with ground-based and in-situ magnetometers. In Y. Collado-Vega, D. Gallagher, H. Frey, &amp; S. Wing (Eds.), Magnetospheric Imaging: Understanding the Space Environment through Global Measurements (pp. 287-340). Elsevier. https://doi.org/10.1016/B978-0-12-820630-0.00002-7</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -931,6 +1048,20 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -963,8 +1094,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1280,23 +1411,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CB2684D-F64C-4FEE-BB0F-D334D32C1866}">
-  <dimension ref="A1:G79"/>
+  <dimension ref="A1:G92"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="A78" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A78" sqref="A78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="61.85546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="34.42578125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="79.42578125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="44.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.86328125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="34.3984375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="79.3984375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.1328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="44.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1319,7 +1450,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>39995</v>
       </c>
@@ -1339,7 +1470,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>39783</v>
       </c>
@@ -1359,7 +1490,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>39630</v>
       </c>
@@ -1379,7 +1510,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>40148</v>
       </c>
@@ -1399,7 +1530,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>39934</v>
       </c>
@@ -1419,7 +1550,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>39814</v>
       </c>
@@ -1439,7 +1570,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>39845</v>
       </c>
@@ -1459,7 +1590,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>39995</v>
       </c>
@@ -1479,7 +1610,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>40087</v>
       </c>
@@ -1499,7 +1630,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>40452</v>
       </c>
@@ -1519,7 +1650,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>40513</v>
       </c>
@@ -1539,7 +1670,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>40544</v>
       </c>
@@ -1559,7 +1690,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>40544</v>
       </c>
@@ -1579,7 +1710,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>40603</v>
       </c>
@@ -1599,7 +1730,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>40725</v>
       </c>
@@ -1619,7 +1750,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>40756</v>
       </c>
@@ -1639,7 +1770,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>41030</v>
       </c>
@@ -1659,7 +1790,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>41030</v>
       </c>
@@ -1679,7 +1810,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>41122</v>
       </c>
@@ -1699,7 +1830,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>41122</v>
       </c>
@@ -1719,7 +1850,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>40909</v>
       </c>
@@ -1739,7 +1870,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>40909</v>
       </c>
@@ -1759,7 +1890,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>41426</v>
       </c>
@@ -1779,7 +1910,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>41426</v>
       </c>
@@ -1799,7 +1930,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>41609</v>
       </c>
@@ -1819,7 +1950,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>41671</v>
       </c>
@@ -1839,7 +1970,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <v>41671</v>
       </c>
@@ -1859,7 +1990,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>41671</v>
       </c>
@@ -1879,7 +2010,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
         <v>41699</v>
       </c>
@@ -1899,7 +2030,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
         <v>41821</v>
       </c>
@@ -1919,7 +2050,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
         <v>41913</v>
       </c>
@@ -1939,7 +2070,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
         <v>41913</v>
       </c>
@@ -1959,7 +2090,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
         <v>41974</v>
       </c>
@@ -1979,7 +2110,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
         <v>42156</v>
       </c>
@@ -1999,7 +2130,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
         <v>42095</v>
       </c>
@@ -2019,7 +2150,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
         <v>42156</v>
       </c>
@@ -2039,7 +2170,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
         <v>42156</v>
       </c>
@@ -2059,7 +2190,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
         <v>42278</v>
       </c>
@@ -2079,7 +2210,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
         <v>42309</v>
       </c>
@@ -2099,7 +2230,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
         <v>42522</v>
       </c>
@@ -2119,7 +2250,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
         <v>42644</v>
       </c>
@@ -2139,7 +2270,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A43" s="1">
         <v>42583</v>
       </c>
@@ -2159,7 +2290,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A44" s="1">
         <v>42705</v>
       </c>
@@ -2179,7 +2310,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A45" s="1">
         <v>42795</v>
       </c>
@@ -2199,7 +2330,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A46" s="1">
         <v>42795</v>
       </c>
@@ -2219,7 +2350,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A47" s="1">
         <v>42795</v>
       </c>
@@ -2239,7 +2370,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A48" s="1">
         <v>42887</v>
       </c>
@@ -2259,7 +2390,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A49" s="1">
         <v>42948</v>
       </c>
@@ -2279,7 +2410,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A50" s="1">
         <v>42979</v>
       </c>
@@ -2299,7 +2430,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A51" s="1">
         <v>42917</v>
       </c>
@@ -2319,7 +2450,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A52" s="1">
         <v>43070</v>
       </c>
@@ -2339,7 +2470,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A53" s="1">
         <v>43070</v>
       </c>
@@ -2359,7 +2490,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" ht="57" x14ac:dyDescent="0.45">
       <c r="A54" s="1">
         <v>43101</v>
       </c>
@@ -2379,7 +2510,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A55" s="1">
         <v>43160</v>
       </c>
@@ -2399,7 +2530,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A56" s="1">
         <v>43132</v>
       </c>
@@ -2419,7 +2550,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A57" s="1">
         <v>43252</v>
       </c>
@@ -2439,7 +2570,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A58" s="1">
         <v>43221</v>
       </c>
@@ -2459,7 +2590,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A59" s="1">
         <v>43221</v>
       </c>
@@ -2479,7 +2610,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A60" s="1">
         <v>43313</v>
       </c>
@@ -2499,7 +2630,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A61" s="1">
         <v>43313</v>
       </c>
@@ -2519,7 +2650,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A62" s="1">
         <v>43405</v>
       </c>
@@ -2539,7 +2670,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A63" s="1">
         <v>43497</v>
       </c>
@@ -2559,7 +2690,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A64" s="1">
         <v>43466</v>
       </c>
@@ -2579,7 +2710,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A65" s="1">
         <v>43783</v>
       </c>
@@ -2599,7 +2730,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A66" s="1">
         <v>43783</v>
       </c>
@@ -2619,7 +2750,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A67" s="1">
         <v>43556</v>
       </c>
@@ -2639,7 +2770,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A68" s="1">
         <v>43739</v>
       </c>
@@ -2659,7 +2790,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A69" s="1">
         <v>43678</v>
       </c>
@@ -2679,7 +2810,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" ht="57" x14ac:dyDescent="0.45">
       <c r="A70" s="1">
         <v>43862</v>
       </c>
@@ -2699,7 +2830,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A71" s="1">
         <v>43922</v>
       </c>
@@ -2719,7 +2850,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A72" s="1">
         <v>43922</v>
       </c>
@@ -2739,7 +2870,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A73" s="1">
         <v>43938</v>
       </c>
@@ -2755,11 +2886,11 @@
       <c r="F73" t="s">
         <v>85</v>
       </c>
-      <c r="G73" s="4" t="s">
+      <c r="G73" s="3" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A74" s="1">
         <v>44053</v>
       </c>
@@ -2775,11 +2906,11 @@
       <c r="F74" t="s">
         <v>46</v>
       </c>
-      <c r="G74" s="3" t="s">
+      <c r="G74" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A75" s="1">
         <v>44155</v>
       </c>
@@ -2799,7 +2930,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A76" s="1">
         <v>44151</v>
       </c>
@@ -2819,7 +2950,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A77" s="1">
         <v>44376</v>
       </c>
@@ -2839,41 +2970,281 @@
         <v>284</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A78" s="1">
-        <v>44409</v>
+        <v>44562</v>
       </c>
       <c r="B78" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="F78" t="s">
+        <v>85</v>
+      </c>
+      <c r="G78" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>44451</v>
+      </c>
+      <c r="B79" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="C78" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E78" s="2" t="s">
+      <c r="C79" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E79" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="F78" t="s">
+      <c r="F79" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A79" s="1">
-        <v>44410</v>
-      </c>
-      <c r="B79" t="s">
-        <v>289</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E79" s="2" t="s">
+      <c r="G79" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44440</v>
+      </c>
+      <c r="B80" t="s">
+        <v>300</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E80" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="F79" t="s">
+      <c r="F80" t="s">
         <v>292</v>
       </c>
+      <c r="G80" s="4" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44462</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="F81" t="s">
+        <v>295</v>
+      </c>
+      <c r="G81" s="4" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="57" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44582</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="F82" t="s">
+        <v>263</v>
+      </c>
+      <c r="G82" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="57" x14ac:dyDescent="0.45">
+      <c r="A83" s="1">
+        <v>44672</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="F83" t="s">
+        <v>303</v>
+      </c>
+      <c r="G83" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A84" s="1">
+        <v>44826</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="F84" t="s">
+        <v>50</v>
+      </c>
+      <c r="G84" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A85" s="1">
+        <v>44788</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="F85" t="s">
+        <v>292</v>
+      </c>
+      <c r="G85" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A86" s="1">
+        <v>44869</v>
+      </c>
+      <c r="B86" t="s">
+        <v>314</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="F86" t="s">
+        <v>85</v>
+      </c>
+      <c r="G86" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A87" s="1">
+        <v>44830</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="F87" t="s">
+        <v>292</v>
+      </c>
+      <c r="G87" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A88" s="1">
+        <v>44847</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="F88" t="s">
+        <v>71</v>
+      </c>
+      <c r="G88" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A89" s="1">
+        <v>44883</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="F89" t="s">
+        <v>303</v>
+      </c>
+      <c r="G89" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="57" x14ac:dyDescent="0.45">
+      <c r="A90" s="1">
+        <v>44939</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="F90" t="s">
+        <v>267</v>
+      </c>
+      <c r="G90" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A91" s="1">
+        <v>44979</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="F91" t="s">
+        <v>237</v>
+      </c>
+      <c r="G91" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B92" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="F92" t="s">
+        <v>85</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="G73" r:id="rId1" xr:uid="{CC1BA474-FB47-485B-804B-35AC93004621}"/>
   </hyperlinks>

--- a/files/Publications.xlsx
+++ b/files/Publications.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\murph\GitHub\kylermurphy.github.io\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\kylermurphy.github.io\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7040D9A6-BF9A-425C-8B1E-BF8DC8FC0210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EC312DF-C89C-469C-BE52-AA249DDF3718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13695" xr2:uid="{1453CF07-56E4-43BF-A661-31D912F52491}"/>
+    <workbookView xWindow="150" yWindow="1005" windowWidth="23940" windowHeight="18405" xr2:uid="{1453CF07-56E4-43BF-A661-31D912F52491}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="386">
   <si>
     <t>pub_date</t>
   </si>
@@ -1030,6 +1030,168 @@
   </si>
   <si>
     <t>Murphy, K. R., Bentley, S. N., Miles, D., Sandhu, J. K., &amp; Smith, A. (2022). Imaging the magnetosphere-ionosphere system with ground-based and in-situ magnetometers. In Y. Collado-Vega, D. Gallagher, H. Frey, &amp; S. Wing (Eds.), Magnetospheric Imaging: Understanding the Space Environment through Global Measurements (pp. 287-340). Elsevier. https://doi.org/10.1016/B978-0-12-820630-0.00002-7</t>
+  </si>
+  <si>
+    <t>Understanding quiet and storm time EMIC waves – Van Allen Probes Results</t>
+  </si>
+  <si>
+    <t>Beyond AMPERE-NEXT: Envisioning the Next System of Global High-Latitude Electrodynamics</t>
+  </si>
+  <si>
+    <t>Imaging the End-to-End Dynamics of the Global Solar Wind-Magnetosphere Interaction</t>
+  </si>
+  <si>
+    <t>Extreme Birkeland Currents Are More Likely During Geomagnetic Storms on the Dayside of the Earth</t>
+  </si>
+  <si>
+    <t>Intense Energetic Electron Precipitation Caused by the Self-Limiting of Space Radiation</t>
+  </si>
+  <si>
+    <t>The Response of Electron Pitch Angle Distributions to the Upper Limit on Stably Trapped Particles</t>
+  </si>
+  <si>
+    <t>Van Allen Probes Observations of a Three-Dimensional Field Line Resonance at a Plasmaspheric Plume</t>
+  </si>
+  <si>
+    <t>Persistent pitch angle anisotropies of relativistic electrons in the outer radiation belts</t>
+  </si>
+  <si>
+    <t>A Feasibility Study of 4-D Tomography of Soft X-ray Magnetosheath Emissivities Using Multi-Spacecraft Measurements</t>
+  </si>
+  <si>
+    <t>Target and Science Visibility of the Solar-Terrestrial Observer for the Response of the Magnetosphere (STORM) Global Imaging Mission Concept</t>
+  </si>
+  <si>
+    <t>Diamond Experiment In the MagnetOSphere (DEIMOS): a Collisionless Shocks and Solar Wind Mission Concept for the Lunar Gateway</t>
+  </si>
+  <si>
+    <t>Derivations of the Total Radiation Belt Electron Content</t>
+  </si>
+  <si>
+    <t>Quantifying the Effects of Solar Wind Fluctuations on the Solar Wind-Magnetosphere Interaction</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1029/2023SW003440</t>
+  </si>
+  <si>
+    <t>Murphy, K. R., Sandhu, J., Rae, I. J., Daggitt, T., Glauert, S., Horne, R. B., et al. (2023). A new four-component L*-dependent model for radial diffusion based on solar wind and magnetospheric drivers of ULF waves. Space Weather, 21, e2023SW003440. https://doi.org/10.1029/2023SW003440</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1029/2023JA031712</t>
+  </si>
+  <si>
+    <t>Remya, B., Halford, A. J., Sibeck, D. G., Murphy, K. R., &amp; Fok, M.-C. (2023). Understanding quiet and storm time EMIC waves—Van Allen Probes results. Journal of Geophysical Research: Space Physics, 128, e2023JA031712. https://doi.org/10.1029/2023JA031712</t>
+  </si>
+  <si>
+    <t>Vines</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3847/25c2cfeb.76348bf9</t>
+  </si>
+  <si>
+    <t>Bulletin of the AAS</t>
+  </si>
+  <si>
+    <t>Vines, S., Anderson, B., Waters, C. L., Allen, R. C., Maute, A., Kunduri, B., … Gang, L. (2023). Beyond AMPERE-NEXT: Envisioning the Next System of Global High-Latitude Electrodynamics. Bulletin of the AAS, 55(3). https://doi.org/10.3847/25c2cfeb.76348bf9</t>
+  </si>
+  <si>
+    <t>Sibeck, D., Murphy, K., Porter, F. S., Walsh, B., Connor, H., Kuntz, K., … Henderson, M. (2023). Imaging the End-to-End Dynamics of the Global Solar Wind-Magnetosphere Interaction. Bulletin of the AAS, 55(3). https://doi.org/10.3847/25c2cfeb.9b87eed9</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1029/2023JA031946</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3847/25c2cfeb.9b87eed9</t>
+  </si>
+  <si>
+    <t>Coxon</t>
+  </si>
+  <si>
+    <t>Coxon, J. C., Chisham, G., Freeman, M. P., Forsyth, C., Walach, M.-T., Murphy, K. R., et al. (2023). Extreme Birkeland currents are more likely during geomagnetic storms on the dayside of the Earth. Journal of Geophysical Research: Space Physics, 128, e2023JA031946. https://doi.org/10.1029/2023JA031946</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1029/2023GL105392</t>
+  </si>
+  <si>
+    <t>Olifer</t>
+  </si>
+  <si>
+    <t>Olifer, L., Mann, I. R., Ozeke, L. G., Walton, S. D., Breneman, A. W., &amp; Murphy, K. (2023). Intense energetic electron precipitation caused by the self-limiting of space radiation. Geophysical Research Letters, 50, e2023GL105392. https://doi.org/10.1029/2023GL105392</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1029/2023JA031988</t>
+  </si>
+  <si>
+    <t>Walton, S. D., Mann, I. R., Olifer, L., Ozeke, L. G., Forsyth, C., Rae, I. J., et al. (2023). The response of electron pitch angle distributions to the upper limit on stably trapped particles. Journal of Geophysical Research: Space Physics, 128, e2023JA031988. https://doi.org/10.1029/2023JA031988</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1029/2023GL106715</t>
+  </si>
+  <si>
+    <t>Sandhu, J. K., Degeling, A. W., Elsden, T., Murphy, K. R., Rae, I. J., Wright, A. N., et al. (2023). Van Allen Probes observations of a three-dimensional field line resonance at a plasmaspheric plume. Geophysical Research Letters, 50, e2023GL106715. https://doi.org/10.1029/2023GL106715</t>
+  </si>
+  <si>
+    <t>Greeley</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1029/2023JA031549</t>
+  </si>
+  <si>
+    <t>Greeley, A. D., Kanekal, S. G., Schiller, Q., Blum, L., Halford, A., Murphy, K., et al. (2024). Persistent pitch angle anisotropies of relativistic electrons in the outer radiation belts. Journal of Geophysical Research: Space Physics, 129, e2023JA031549. https://doi.org/10.1029/2023JA031549</t>
+  </si>
+  <si>
+    <t>Cucho-Padin</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3389/fspas.2024.1379321</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1029/2024JA032666</t>
+  </si>
+  <si>
+    <t>Inglis</t>
+  </si>
+  <si>
+    <t>A survey of EMIC waves in Van Allen Probe data</t>
+  </si>
+  <si>
+    <t>Inglis, A. R., Murphy, K. R., &amp; Halford, A. (2024). A Survey of EMIC waves in Van Allen Probe data. Journal of Geophysical Research: Space Physics, 129, e2024JA032666. https://doi.org/10.1029/2024JA032666</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3389/fspas.2024.1394655</t>
+  </si>
+  <si>
+    <t>Shonibare</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1029/2024JA032728</t>
+  </si>
+  <si>
+    <t>Shonibare, T., Murphy, K. R., &amp; Pakhotin, I. P. (2024). Diamond experiment in the magnetosphere (DEIMOS): A collisionless shocks and solar wind mission concept for the Lunar Gateway. Journal of Geophysical Research: Space Physics, 129, e2024JA032728. https://doi.org/10.1029/2024JA032728</t>
+  </si>
+  <si>
+    <t>Pitzel</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1029/2024JA032940</t>
+  </si>
+  <si>
+    <t>Pitzel, J. C., Cully, C. M., Ripoll, J.-F., Loridan, V., Huang, C.-L., Spence, H. E., et al. (2024). Derivations of the total radiation belt electron content. Journal of Geophysical Research: Space Physics, 129, e2024JA032940. https://doi.org/10.1029/2024JA032940</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1029/2024SW003928</t>
+  </si>
+  <si>
+    <t>Understanding and Modeling the Dynamics of Storm-Time Atmospheric Neutral Density Using Random Forests</t>
+  </si>
+  <si>
+    <t>Murphy, K., Halford, A. J., Liu, V., Klenzing, J., Smith, J., Garcia-Sage, K., et al. (2025). Understanding and modeling the dynamics of storm-time atmospheric neutral density using random forests. Space Weather, 23, e2024SW003928. https://doi.org/10.1029/2024SW003928</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1029/2025GL114954</t>
+  </si>
+  <si>
+    <t>Sibeck, D. G., &amp; Murphy, K. R. (2025). Quantifying the effects of solar wind fluctuations on the solar wind-magnetosphere interaction. Geophysical Research Letters, 52, e2025GL114954. https://doi.org/10.1029/2025GL114954</t>
   </si>
 </sst>
 </file>
@@ -1115,9 +1277,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1155,7 +1317,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1261,7 +1423,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1403,7 +1565,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1411,23 +1573,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CB2684D-F64C-4FEE-BB0F-D334D32C1866}">
-  <dimension ref="A1:G92"/>
+  <dimension ref="A1:G107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A78" sqref="A78"/>
+    <sheetView tabSelected="1" topLeftCell="A99" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E98" sqref="E98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="61.86328125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="34.3984375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="79.3984375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11.1328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="44.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="34.42578125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="79.42578125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="44.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1450,7 +1612,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>39995</v>
       </c>
@@ -1470,7 +1632,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>39783</v>
       </c>
@@ -1490,7 +1652,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>39630</v>
       </c>
@@ -1510,7 +1672,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>40148</v>
       </c>
@@ -1530,7 +1692,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>39934</v>
       </c>
@@ -1550,7 +1712,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>39814</v>
       </c>
@@ -1570,7 +1732,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>39845</v>
       </c>
@@ -1590,7 +1752,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>39995</v>
       </c>
@@ -1610,7 +1772,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>40087</v>
       </c>
@@ -1630,7 +1792,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>40452</v>
       </c>
@@ -1650,7 +1812,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>40513</v>
       </c>
@@ -1670,7 +1832,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>40544</v>
       </c>
@@ -1690,7 +1852,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>40544</v>
       </c>
@@ -1710,7 +1872,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>40603</v>
       </c>
@@ -1730,7 +1892,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>40725</v>
       </c>
@@ -1750,7 +1912,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>40756</v>
       </c>
@@ -1770,7 +1932,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>41030</v>
       </c>
@@ -1790,7 +1952,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>41030</v>
       </c>
@@ -1810,7 +1972,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>41122</v>
       </c>
@@ -1830,7 +1992,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>41122</v>
       </c>
@@ -1850,7 +2012,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>40909</v>
       </c>
@@ -1870,7 +2032,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>40909</v>
       </c>
@@ -1890,7 +2052,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>41426</v>
       </c>
@@ -1910,7 +2072,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>41426</v>
       </c>
@@ -1930,7 +2092,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>41609</v>
       </c>
@@ -1950,7 +2112,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>41671</v>
       </c>
@@ -1970,7 +2132,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>41671</v>
       </c>
@@ -1990,7 +2152,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>41671</v>
       </c>
@@ -2010,7 +2172,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>41699</v>
       </c>
@@ -2030,7 +2192,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>41821</v>
       </c>
@@ -2050,7 +2212,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>41913</v>
       </c>
@@ -2070,7 +2232,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>41913</v>
       </c>
@@ -2090,7 +2252,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>41974</v>
       </c>
@@ -2110,7 +2272,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>42156</v>
       </c>
@@ -2130,7 +2292,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>42095</v>
       </c>
@@ -2150,7 +2312,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>42156</v>
       </c>
@@ -2170,7 +2332,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>42156</v>
       </c>
@@ -2190,7 +2352,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>42278</v>
       </c>
@@ -2210,7 +2372,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>42309</v>
       </c>
@@ -2230,7 +2392,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>42522</v>
       </c>
@@ -2250,7 +2412,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>42644</v>
       </c>
@@ -2270,7 +2432,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42583</v>
       </c>
@@ -2290,7 +2452,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42705</v>
       </c>
@@ -2310,7 +2472,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>42795</v>
       </c>
@@ -2330,7 +2492,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>42795</v>
       </c>
@@ -2350,7 +2512,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>42795</v>
       </c>
@@ -2370,7 +2532,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>42887</v>
       </c>
@@ -2390,7 +2552,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>42948</v>
       </c>
@@ -2410,7 +2572,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>42979</v>
       </c>
@@ -2430,7 +2592,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>42917</v>
       </c>
@@ -2450,7 +2612,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>43070</v>
       </c>
@@ -2470,7 +2632,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>43070</v>
       </c>
@@ -2490,7 +2652,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="57" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>43101</v>
       </c>
@@ -2510,7 +2672,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>43160</v>
       </c>
@@ -2530,7 +2692,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>43132</v>
       </c>
@@ -2550,7 +2712,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>43252</v>
       </c>
@@ -2570,7 +2732,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>43221</v>
       </c>
@@ -2590,7 +2752,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>43221</v>
       </c>
@@ -2610,7 +2772,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>43313</v>
       </c>
@@ -2630,7 +2792,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>43313</v>
       </c>
@@ -2650,7 +2812,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>43405</v>
       </c>
@@ -2670,7 +2832,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>43497</v>
       </c>
@@ -2690,7 +2852,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>43466</v>
       </c>
@@ -2710,7 +2872,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>43783</v>
       </c>
@@ -2730,7 +2892,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>43783</v>
       </c>
@@ -2750,7 +2912,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>43556</v>
       </c>
@@ -2770,7 +2932,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>43739</v>
       </c>
@@ -2790,7 +2952,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>43678</v>
       </c>
@@ -2810,7 +2972,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="57" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>43862</v>
       </c>
@@ -2830,7 +2992,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>43922</v>
       </c>
@@ -2850,7 +3012,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>43922</v>
       </c>
@@ -2870,7 +3032,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>43938</v>
       </c>
@@ -2890,7 +3052,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>44053</v>
       </c>
@@ -2910,7 +3072,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>44155</v>
       </c>
@@ -2930,7 +3092,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>44151</v>
       </c>
@@ -2950,7 +3112,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>44376</v>
       </c>
@@ -2970,7 +3132,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>44562</v>
       </c>
@@ -2990,7 +3152,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>44451</v>
       </c>
@@ -3010,7 +3172,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>44440</v>
       </c>
@@ -3030,7 +3192,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>44462</v>
       </c>
@@ -3050,7 +3212,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="57" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>44582</v>
       </c>
@@ -3070,7 +3232,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="57" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>44672</v>
       </c>
@@ -3090,7 +3252,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>44826</v>
       </c>
@@ -3110,7 +3272,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>44788</v>
       </c>
@@ -3127,7 +3289,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>44869</v>
       </c>
@@ -3144,7 +3306,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>44830</v>
       </c>
@@ -3161,7 +3323,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>44847</v>
       </c>
@@ -3178,7 +3340,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>44883</v>
       </c>
@@ -3195,7 +3357,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="57" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>44939</v>
       </c>
@@ -3215,7 +3377,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>44979</v>
       </c>
@@ -3232,23 +3394,327 @@
         <v>326</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>45126</v>
+      </c>
       <c r="B92" s="2" t="s">
         <v>327</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>247</v>
       </c>
+      <c r="E92" s="2" t="s">
+        <v>346</v>
+      </c>
       <c r="F92" t="s">
         <v>85</v>
+      </c>
+      <c r="G92" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>45138</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="F93" t="s">
+        <v>213</v>
+      </c>
+      <c r="G93" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>45163</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="F94" t="s">
+        <v>349</v>
+      </c>
+      <c r="G94" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>45163</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="F95" t="s">
+        <v>237</v>
+      </c>
+      <c r="G95" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>45272</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="F96" t="s">
+        <v>356</v>
+      </c>
+      <c r="G96" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>45239</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="F97" t="s">
+        <v>359</v>
+      </c>
+      <c r="G97" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>45240</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="F98" t="s">
+        <v>303</v>
+      </c>
+      <c r="G98" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>45260</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="F99" t="s">
+        <v>256</v>
+      </c>
+      <c r="G99" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>45286</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="F100" t="s">
+        <v>365</v>
+      </c>
+      <c r="G100" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>45417</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="F101" t="s">
+        <v>368</v>
+      </c>
+      <c r="G101" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
+        <v>45521</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="F102" t="s">
+        <v>371</v>
+      </c>
+      <c r="G102" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
+        <v>45561</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="F103" t="s">
+        <v>85</v>
+      </c>
+      <c r="G103" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
+        <v>45623</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="F104" t="s">
+        <v>375</v>
+      </c>
+      <c r="G104" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
+        <v>45623</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="F105" t="s">
+        <v>378</v>
+      </c>
+      <c r="G105" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
+        <v>45663</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="F106" t="s">
+        <v>85</v>
+      </c>
+      <c r="G106" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
+        <v>45731</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="F107" t="s">
+        <v>237</v>
+      </c>
+      <c r="G107" t="s">
+        <v>384</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="G73" r:id="rId1" xr:uid="{CC1BA474-FB47-485B-804B-35AC93004621}"/>
+    <hyperlink ref="E100" r:id="rId2" display="https://doi.org/10.1029/2023JA031549" xr:uid="{3F139368-17C5-410F-97CA-1D40878AE1E6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
 </worksheet>
 </file>